--- a/numeros - Copy.xlsx
+++ b/numeros - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="27315" windowHeight="13095" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="27315" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="2" r:id="rId1"/>
@@ -2235,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2247,7 +2247,7 @@
     <col min="2" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2258,56 +2258,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54.95" customHeight="1">
+    <row r="2" spans="1:4" ht="54.95" customHeight="1">
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D2">
+        <f>B2*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="54.95" customHeight="1">
       <c r="B3" s="1">
         <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="54.95" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D23" si="0">B3*0.6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54.95" customHeight="1">
       <c r="B4" s="1">
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54.95" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54.95" customHeight="1">
       <c r="B5" s="1">
         <v>50</v>
       </c>
       <c r="C5" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="54.95" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54.95" customHeight="1">
       <c r="B6" s="1">
         <v>80</v>
       </c>
       <c r="C6" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="54.95" customHeight="1" thickBot="1">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="54.95" customHeight="1" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>120</v>
       </c>
       <c r="C7" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54.95" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54.95" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>0</v>
@@ -2315,40 +2339,60 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="54.95" customHeight="1">
       <c r="B9" s="1">
         <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54.95" customHeight="1">
       <c r="B10" s="1">
         <v>50</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="54.95" customHeight="1">
       <c r="B11" s="1">
         <v>90</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="68.25" customHeight="1">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="68.25" customHeight="1">
       <c r="B12" s="1">
         <v>150</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="66.75" customHeight="1" thickBot="1">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="66.75" customHeight="1" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>230</v>
@@ -2356,40 +2400,60 @@
       <c r="C13" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54.95" customHeight="1">
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="54.95" customHeight="1">
       <c r="B15" s="1">
         <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="54.95" customHeight="1">
       <c r="B16" s="1">
         <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="54.95" customHeight="1">
       <c r="B17" s="1">
         <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="54.95" customHeight="1" thickBot="1">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54.95" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="3">
         <v>50</v>
@@ -2397,54 +2461,78 @@
       <c r="C18" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54.95" customHeight="1">
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="54.95" customHeight="1">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54.95" customHeight="1">
       <c r="B20" s="1">
         <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" customHeight="1">
       <c r="B21" s="1">
         <v>60</v>
       </c>
       <c r="C21" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="64.5" customHeight="1">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="64.5" customHeight="1">
       <c r="B22" s="1">
         <v>100</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="63" customHeight="1">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63" customHeight="1">
       <c r="B23" s="1">
         <v>160</v>
       </c>
       <c r="C23" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="54.95" customHeight="1"/>
-    <row r="25" spans="1:3" ht="54.95" customHeight="1"/>
-    <row r="26" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="27" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="28" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="29" spans="1:3" ht="24.95" customHeight="1"/>
-    <row r="30" spans="1:3" ht="24.95" customHeight="1"/>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="54.95" customHeight="1"/>
+    <row r="25" spans="1:4" ht="54.95" customHeight="1"/>
+    <row r="26" spans="1:4" ht="24.95" customHeight="1"/>
+    <row r="27" spans="1:4" ht="24.95" customHeight="1"/>
+    <row r="28" spans="1:4" ht="24.95" customHeight="1"/>
+    <row r="29" spans="1:4" ht="24.95" customHeight="1"/>
+    <row r="30" spans="1:4" ht="24.95" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2455,7 +2543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>

--- a/numeros - Copy.xlsx
+++ b/numeros - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="27315" windowHeight="13095"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="27315" windowHeight="13095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -91,6 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2237,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2543,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2873,6 +2874,108 @@
       </c>
       <c r="Z5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="6">
+        <f>B3*0.7</f>
+        <v>35</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:Z6" si="0">C3*0.7</f>
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="0"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="0"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="0"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="0"/>
+        <v>23.799999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:26">
